--- a/jogos_2025-05-08.xlsx
+++ b/jogos_2025-05-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="188">
   <si>
     <t>Date</t>
   </si>
@@ -202,6 +202,9 @@
     <t>19:00</t>
   </si>
   <si>
+    <t>20:00</t>
+  </si>
+  <si>
     <t>21:30</t>
   </si>
   <si>
@@ -226,9 +229,15 @@
     <t>Morocco Botola Pro</t>
   </si>
   <si>
+    <t>England Championship</t>
+  </si>
+  <si>
     <t>South America Copa Libertadores</t>
   </si>
   <si>
+    <t>Jamaica Jamaica National Premier League</t>
+  </si>
+  <si>
     <t>Brazil Serie B</t>
   </si>
   <si>
@@ -241,34 +250,40 @@
     <t>Dinamo Tbilisi</t>
   </si>
   <si>
+    <t>Sur</t>
+  </si>
+  <si>
+    <t>Bahla</t>
+  </si>
+  <si>
+    <t>Al Seeb</t>
+  </si>
+  <si>
+    <t>Al-Nahda</t>
+  </si>
+  <si>
     <t>Al Khabourah</t>
   </si>
   <si>
-    <t>Bahla</t>
-  </si>
-  <si>
-    <t>Al Seeb</t>
-  </si>
-  <si>
-    <t>Sur</t>
-  </si>
-  <si>
-    <t>Al-Nahda</t>
-  </si>
-  <si>
     <t>Sohar</t>
   </si>
   <si>
     <t>Aluminium Arak</t>
   </si>
   <si>
+    <t>Zob Ahan</t>
+  </si>
+  <si>
+    <t>Esteghlal</t>
+  </si>
+  <si>
     <t>Tractor Sazi</t>
   </si>
   <si>
     <t>Havadar</t>
   </si>
   <si>
-    <t>Zob Ahan</t>
+    <t>Kheybar Khorramabad</t>
   </si>
   <si>
     <t>Foolad</t>
@@ -277,43 +292,43 @@
     <t>Gol Gohar</t>
   </si>
   <si>
-    <t>Kheybar Khorramabad</t>
-  </si>
-  <si>
-    <t>Esteghlal</t>
+    <t>Gareji</t>
   </si>
   <si>
     <t>Al Ahly</t>
   </si>
   <si>
-    <t>Gareji</t>
-  </si>
-  <si>
     <t>Raja Casablanca</t>
   </si>
   <si>
     <t>FUS Rabat</t>
   </si>
   <si>
+    <t>Ittihad Tanger</t>
+  </si>
+  <si>
+    <t>Olympic Safi</t>
+  </si>
+  <si>
+    <t>Riadi Salmi</t>
+  </si>
+  <si>
+    <t>Bristol City</t>
+  </si>
+  <si>
+    <t>CR Khemis Zemamra</t>
+  </si>
+  <si>
     <t>FAR Rabat</t>
   </si>
   <si>
-    <t>CR Khemis Zemamra</t>
-  </si>
-  <si>
-    <t>Riadi Salmi</t>
-  </si>
-  <si>
-    <t>Olympic Safi</t>
-  </si>
-  <si>
-    <t>Ittihad Tanger</t>
+    <t>Vélez Sarsfield</t>
   </si>
   <si>
     <t>Talleres Córdoba</t>
   </si>
   <si>
-    <t>Vélez Sarsfield</t>
+    <t>Tivoli Gardens</t>
   </si>
   <si>
     <t>Barcelona</t>
@@ -331,34 +346,40 @@
     <t>Telavi</t>
   </si>
   <si>
+    <t>Saham</t>
+  </si>
+  <si>
+    <t>Al Shabab</t>
+  </si>
+  <si>
+    <t>Al Nasr</t>
+  </si>
+  <si>
+    <t>Al-Rustaq</t>
+  </si>
+  <si>
     <t>Ibri</t>
   </si>
   <si>
-    <t>Al Shabab</t>
-  </si>
-  <si>
-    <t>Al Nasr</t>
-  </si>
-  <si>
-    <t>Saham</t>
-  </si>
-  <si>
-    <t>Al-Rustaq</t>
-  </si>
-  <si>
     <t>Oman Club</t>
   </si>
   <si>
     <t>Malavan</t>
   </si>
   <si>
+    <t>Mes Rafsanjan</t>
+  </si>
+  <si>
+    <t>Chadormalu SC</t>
+  </si>
+  <si>
     <t>Nassaji Mazandaran</t>
   </si>
   <si>
     <t>Sepahan</t>
   </si>
   <si>
-    <t>Mes Rafsanjan</t>
+    <t>Persepolis</t>
   </si>
   <si>
     <t>Esteghlal Khuzestan</t>
@@ -367,43 +388,43 @@
     <t>Shams Azar Qazvin</t>
   </si>
   <si>
-    <t>Persepolis</t>
-  </si>
-  <si>
-    <t>Chadormalu SC</t>
+    <t>Kolkheti Poti</t>
   </si>
   <si>
     <t>Al Masry</t>
   </si>
   <si>
-    <t>Kolkheti Poti</t>
-  </si>
-  <si>
     <t>Difaâ El Jadida</t>
   </si>
   <si>
     <t>Hassania Agadir</t>
   </si>
   <si>
+    <t>CODM Meknès</t>
+  </si>
+  <si>
+    <t>Maghreb Fès</t>
+  </si>
+  <si>
+    <t>Wydad Casablanca</t>
+  </si>
+  <si>
+    <t>Sheffield United</t>
+  </si>
+  <si>
+    <t>UTS Rabat</t>
+  </si>
+  <si>
     <t>Moghreb Tétouan</t>
   </si>
   <si>
-    <t>UTS Rabat</t>
-  </si>
-  <si>
-    <t>Wydad Casablanca</t>
-  </si>
-  <si>
-    <t>Maghreb Fès</t>
-  </si>
-  <si>
-    <t>CODM Meknès</t>
+    <t>Olimpia</t>
   </si>
   <si>
     <t>Libertad</t>
   </si>
   <si>
-    <t>Olimpia</t>
+    <t>Montego Bay United</t>
   </si>
   <si>
     <t>River Plate</t>
@@ -418,10 +439,145 @@
     <t>CSD Independiente del Valle</t>
   </si>
   <si>
-    <t>incomplete</t>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>['-1', '-1']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['30', '48', '55', '64']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['14', '89']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['50', '67']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['3', '31']</t>
   </si>
   <si>
     <t>[]</t>
+  </si>
+  <si>
+    <t>['69', '72', '79']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>['45', '53']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['-1', '-1', '-1', '-1']</t>
+  </si>
+  <si>
+    <t>['35', '45+3', '58', '79']</t>
+  </si>
+  <si>
+    <t>['15', '45+5', '73']</t>
+  </si>
+  <si>
+    <t>['13', '89']</t>
+  </si>
+  <si>
+    <t>['6', '46']</t>
+  </si>
+  <si>
+    <t>['45+5', '71']</t>
+  </si>
+  <si>
+    <t>['5', '59', '90+4']</t>
+  </si>
+  <si>
+    <t>['26', '85']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['-1']</t>
+  </si>
+  <si>
+    <t>['15', '49']</t>
+  </si>
+  <si>
+    <t>['39', '55', '90+3']</t>
+  </si>
+  <si>
+    <t>['90+11']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['58', '85']</t>
+  </si>
+  <si>
+    <t>['35', '90', '90+4']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['37', '78', '82']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['66', '90+2']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['6', '81']</t>
+  </si>
+  <si>
+    <t>['39', '75']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['16', '79']</t>
+  </si>
+  <si>
+    <t>['29', '79']</t>
+  </si>
+  <si>
+    <t>['45+3', '73', '79']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['7', '26', '48']</t>
+  </si>
+  <si>
+    <t>['80']</t>
   </si>
 </sst>
 </file>
@@ -785,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD31"/>
+  <dimension ref="A1:BD33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -969,22 +1125,22 @@
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -993,97 +1149,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AJ2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AK2" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AO2">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AP2">
         <v>0</v>
@@ -1122,10 +1278,10 @@
         <v>0</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="BD2" s="3">
         <v>45785.5</v>
@@ -1139,40 +1295,40 @@
         <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1184,73 +1340,73 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AJ3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="AK3" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AO3">
         <v>-1</v>
@@ -1309,121 +1465,121 @@
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AJ4" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="AK4" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AO4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -1462,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="BD4" s="3">
         <v>45785.51041666666</v>
@@ -1479,22 +1635,22 @@
         <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1503,97 +1659,97 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AJ5" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="AK5" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AM5">
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AO5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AP5">
         <v>0</v>
@@ -1632,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="BD5" s="3">
         <v>45785.51041666666</v>
@@ -1649,121 +1805,121 @@
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AJ6" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="AK6" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AM6">
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AO6">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AP6">
         <v>0</v>
@@ -1802,10 +1958,10 @@
         <v>0</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="BD6" s="3">
         <v>45785.51041666666</v>
@@ -1819,19 +1975,19 @@
         <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1843,16 +1999,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1864,73 +2020,73 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AJ7" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AK7" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AM7">
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AO7">
         <v>-1</v>
@@ -1989,19 +2145,19 @@
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2013,97 +2169,97 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>3.78</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AJ8" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="AK8" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AM8">
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AO8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AP8">
         <v>0</v>
@@ -2142,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BC8">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="BD8" s="3">
         <v>45785.51041666666</v>
@@ -2159,121 +2315,121 @@
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>5.65</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AJ9" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="AK9" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AO9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AP9">
         <v>0</v>
@@ -2312,10 +2468,10 @@
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="BC9">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="BD9" s="3">
         <v>45785.54166666666</v>
@@ -2329,121 +2485,121 @@
         <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="AK10" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AO10">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AP10">
         <v>0</v>
@@ -2482,10 +2638,10 @@
         <v>0</v>
       </c>
       <c r="BB10">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BC10">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="BD10" s="3">
         <v>45785.54166666666</v>
@@ -2499,16 +2655,16 @@
         <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2523,97 +2679,97 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AJ11" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="AK11" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AO11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AP11">
         <v>0</v>
@@ -2652,10 +2808,10 @@
         <v>0</v>
       </c>
       <c r="BB11">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BC11">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="BD11" s="3">
         <v>45785.54166666666</v>
@@ -2669,121 +2825,121 @@
         <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AJ12" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="AK12" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AO12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AP12">
         <v>0</v>
@@ -2822,10 +2978,10 @@
         <v>0</v>
       </c>
       <c r="BB12">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BC12">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="BD12" s="3">
         <v>45785.54166666666</v>
@@ -2839,49 +2995,49 @@
         <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -2914,10 +3070,10 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -2938,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="AK13" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2953,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="AO13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AP13">
         <v>0</v>
@@ -2992,10 +3148,10 @@
         <v>0</v>
       </c>
       <c r="BB13">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="BC13">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="BD13" s="3">
         <v>45785.54166666666</v>
@@ -3009,118 +3165,118 @@
         <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.59</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AJ14" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="AK14" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AO14">
         <v>-1</v>
@@ -3162,10 +3318,10 @@
         <v>0</v>
       </c>
       <c r="BB14">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="BC14">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="BD14" s="3">
         <v>45785.54166666666</v>
@@ -3179,121 +3335,121 @@
         <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>7.17</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AJ15" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="AK15" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AO15">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AP15">
         <v>0</v>
@@ -3332,10 +3488,10 @@
         <v>0</v>
       </c>
       <c r="BB15">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="BC15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BD15" s="3">
         <v>45785.54166666666</v>
@@ -3349,49 +3505,49 @@
         <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -3418,16 +3574,16 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AD16">
         <v>0</v>
@@ -3448,10 +3604,10 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="AK16" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -3463,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="AO16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AP16">
         <v>0</v>
@@ -3502,10 +3658,10 @@
         <v>0</v>
       </c>
       <c r="BB16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BC16">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="BD16" s="3">
         <v>45785.54166666666</v>
@@ -3519,22 +3675,22 @@
         <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -3543,94 +3699,94 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L17">
+        <v>2.25</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>3.2</v>
+      </c>
+      <c r="O17">
+        <v>1.8</v>
+      </c>
+      <c r="P17">
+        <v>8</v>
+      </c>
+      <c r="Q17">
+        <v>2.4</v>
+      </c>
+      <c r="R17">
         <v>1.44</v>
       </c>
-      <c r="M17">
-        <v>3.85</v>
-      </c>
-      <c r="N17">
-        <v>6</v>
-      </c>
-      <c r="O17">
-        <v>1.36</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>4</v>
-      </c>
-      <c r="R17">
-        <v>1.37</v>
-      </c>
       <c r="S17">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T17">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="U17">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="V17">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="W17">
         <v>1.05</v>
       </c>
       <c r="X17">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="Y17">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="Z17">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AA17">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="AB17">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="AC17">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="AD17">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="AE17">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="AF17">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AG17">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AH17">
-        <v>6.9</v>
+        <v>8.5</v>
       </c>
       <c r="AI17">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AJ17" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="AK17" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AL17">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="AM17">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AN17">
-        <v>2.5</v>
+        <v>1.53</v>
       </c>
       <c r="AO17">
         <v>-1</v>
@@ -3672,10 +3828,10 @@
         <v>0</v>
       </c>
       <c r="BB17">
-        <v>1.36</v>
+        <v>1.8</v>
       </c>
       <c r="BC17">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="BD17" s="3">
         <v>45785.58333333334</v>
@@ -3689,151 +3845,151 @@
         <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AJ18" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="AK18" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AO18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AU18">
-        <v>0</v>
+        <v>3.12</v>
       </c>
       <c r="AV18">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AW18">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AX18">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AY18">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AZ18">
         <v>0</v>
@@ -3842,10 +3998,10 @@
         <v>0</v>
       </c>
       <c r="BB18">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="BC18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BD18" s="3">
         <v>45785.58333333334</v>
@@ -3859,118 +4015,118 @@
         <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F19" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AJ19" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="AK19" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AO19">
         <v>-1</v>
@@ -4012,10 +4168,10 @@
         <v>0</v>
       </c>
       <c r="BB19">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="BC19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BD19" s="3">
         <v>45785.66666666666</v>
@@ -4029,121 +4185,121 @@
         <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F20" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AJ20" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="AK20" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AO20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AP20">
         <v>0</v>
@@ -4182,10 +4338,10 @@
         <v>0</v>
       </c>
       <c r="BB20">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="BC20">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="BD20" s="3">
         <v>45785.66666666666</v>
@@ -4199,118 +4355,118 @@
         <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F21" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AJ21" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="AK21" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AO21">
         <v>-1</v>
@@ -4352,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="BB21">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="BC21">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BD21" s="3">
         <v>45785.66666666666</v>
@@ -4369,121 +4525,121 @@
         <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F22" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="AK22" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AM22">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AO22">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AP22">
         <v>0</v>
@@ -4522,10 +4678,10 @@
         <v>0</v>
       </c>
       <c r="BB22">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="BC22">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="BD22" s="3">
         <v>45785.66666666666</v>
@@ -4539,118 +4695,118 @@
         <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F23" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.73</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>9.25</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>5.95</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AJ23" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="AK23" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AO23">
         <v>-1</v>
@@ -4659,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -4674,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="AV23">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AW23">
         <v>0</v>
@@ -4692,10 +4848,10 @@
         <v>0</v>
       </c>
       <c r="BB23">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="BC23">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="BD23" s="3">
         <v>45785.66666666666</v>
@@ -4709,151 +4865,151 @@
         <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F24" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AJ24" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="AK24" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="AL24">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AM24">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AO24">
         <v>-1</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AQ24">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AR24">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AS24">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AT24">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AU24">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AV24">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AW24">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AX24">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AY24">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AZ24">
         <v>0</v>
@@ -4862,10 +5018,10 @@
         <v>0</v>
       </c>
       <c r="BB24">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BC24">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BD24" s="3">
         <v>45785.66666666666</v>
@@ -4879,121 +5035,121 @@
         <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F25" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AJ25" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="AK25" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="AL25">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AO25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AP25">
         <v>0</v>
@@ -5032,10 +5188,10 @@
         <v>0</v>
       </c>
       <c r="BB25">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="BC25">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BD25" s="3">
         <v>45785.66666666666</v>
@@ -5046,154 +5202,154 @@
         <v>45785</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
         <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F26" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L26">
-        <v>1.68</v>
+        <v>1.33</v>
       </c>
       <c r="M26">
-        <v>3.18</v>
+        <v>4.4</v>
       </c>
       <c r="N26">
+        <v>6.2</v>
+      </c>
+      <c r="O26">
+        <v>1.3</v>
+      </c>
+      <c r="P26">
+        <v>8.5</v>
+      </c>
+      <c r="Q26">
         <v>4.75</v>
       </c>
-      <c r="O26">
+      <c r="R26">
+        <v>1.27</v>
+      </c>
+      <c r="S26">
+        <v>3.3</v>
+      </c>
+      <c r="T26">
+        <v>2.45</v>
+      </c>
+      <c r="U26">
         <v>1.5</v>
       </c>
-      <c r="P26">
-        <v>6.5</v>
-      </c>
-      <c r="Q26">
-        <v>3.25</v>
-      </c>
-      <c r="R26">
-        <v>1.53</v>
-      </c>
-      <c r="S26">
-        <v>2.38</v>
-      </c>
-      <c r="T26">
-        <v>3.5</v>
-      </c>
-      <c r="U26">
-        <v>1.29</v>
-      </c>
       <c r="V26">
-        <v>11</v>
+        <v>5.3</v>
       </c>
       <c r="W26">
+        <v>1.12</v>
+      </c>
+      <c r="X26">
         <v>1.05</v>
       </c>
-      <c r="X26">
-        <v>1.1</v>
-      </c>
       <c r="Y26">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Z26">
-        <v>1.48</v>
+        <v>1.17</v>
       </c>
       <c r="AA26">
+        <v>4.3</v>
+      </c>
+      <c r="AB26">
+        <v>1.65</v>
+      </c>
+      <c r="AC26">
+        <v>2.1</v>
+      </c>
+      <c r="AD26">
         <v>2.6</v>
       </c>
-      <c r="AB26">
-        <v>2.37</v>
-      </c>
-      <c r="AC26">
-        <v>1.48</v>
-      </c>
-      <c r="AD26">
+      <c r="AE26">
+        <v>1.35</v>
+      </c>
+      <c r="AF26">
+        <v>1.83</v>
+      </c>
+      <c r="AG26">
+        <v>1.83</v>
+      </c>
+      <c r="AH26">
         <v>4.75</v>
       </c>
-      <c r="AE26">
-        <v>1.18</v>
-      </c>
-      <c r="AF26">
-        <v>2.25</v>
-      </c>
-      <c r="AG26">
-        <v>1.57</v>
-      </c>
-      <c r="AH26">
-        <v>9.5</v>
-      </c>
       <c r="AI26">
-        <v>1.05</v>
+        <v>1.17</v>
       </c>
       <c r="AJ26" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="AK26" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="AL26">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="AM26">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AN26">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="AO26">
         <v>-1</v>
       </c>
       <c r="AP26">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="AQ26">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AR26">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="AS26">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AT26">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="AU26">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="AV26">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="AW26">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AX26">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AY26">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AZ26">
         <v>0</v>
@@ -5202,13 +5358,13 @@
         <v>0</v>
       </c>
       <c r="BB26">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="BC26">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="BD26" s="3">
-        <v>45785.79166666666</v>
+        <v>45785.66666666666</v>
       </c>
     </row>
     <row r="27" spans="1:56">
@@ -5219,31 +5375,31 @@
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L27">
         <v>1.67</v>
@@ -5318,10 +5474,10 @@
         <v>1.07</v>
       </c>
       <c r="AJ27" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="AK27" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="AL27">
         <v>1.15</v>
@@ -5386,19 +5542,19 @@
         <v>45785</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -5413,127 +5569,127 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L28">
-        <v>3.59</v>
+        <v>1.68</v>
       </c>
       <c r="M28">
         <v>3.18</v>
       </c>
       <c r="N28">
-        <v>1.9</v>
+        <v>4.75</v>
       </c>
       <c r="O28">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="P28">
-        <v>7.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q28">
-        <v>1.62</v>
+        <v>3.25</v>
       </c>
       <c r="R28">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="S28">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="T28">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U28">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="V28">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="W28">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="X28">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Y28">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Z28">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AA28">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="AB28">
-        <v>2.1</v>
+        <v>2.37</v>
       </c>
       <c r="AC28">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="AD28">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="AE28">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AF28">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="AG28">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="AH28">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AI28">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AJ28" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="AK28" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="AL28">
-        <v>1.8</v>
+        <v>1.15</v>
       </c>
       <c r="AM28">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AN28">
-        <v>1.25</v>
+        <v>2.05</v>
       </c>
       <c r="AO28">
         <v>-1</v>
       </c>
       <c r="AP28">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="AQ28">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="AR28">
-        <v>2.14</v>
+        <v>2.55</v>
       </c>
       <c r="AS28">
-        <v>2.83</v>
+        <v>3.4</v>
       </c>
       <c r="AT28">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="AU28">
-        <v>2.78</v>
+        <v>2.23</v>
       </c>
       <c r="AV28">
-        <v>2.05</v>
+        <v>1.74</v>
       </c>
       <c r="AW28">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AX28">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AY28">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="AZ28">
         <v>0</v>
@@ -5542,13 +5698,13 @@
         <v>0</v>
       </c>
       <c r="BB28">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="BC28">
-        <v>1.62</v>
+        <v>3.25</v>
       </c>
       <c r="BD28" s="3">
-        <v>45785.89583333334</v>
+        <v>45785.79166666666</v>
       </c>
     </row>
     <row r="29" spans="1:56">
@@ -5559,22 +5715,22 @@
         <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F29" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -5583,127 +5739,127 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L29">
-        <v>2.2</v>
+        <v>2.65</v>
       </c>
       <c r="M29">
-        <v>3.16</v>
+        <v>3</v>
       </c>
       <c r="N29">
-        <v>2.86</v>
+        <v>2.5</v>
       </c>
       <c r="O29">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P29">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="Q29">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="R29">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S29">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="T29">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="U29">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W29">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="X29">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="Y29">
         <v>8</v>
       </c>
       <c r="Z29">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AA29">
         <v>2.9</v>
       </c>
       <c r="AB29">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AC29">
         <v>1.61</v>
       </c>
       <c r="AD29">
-        <v>4.2</v>
+        <v>3.88</v>
       </c>
       <c r="AE29">
         <v>1.22</v>
       </c>
       <c r="AF29">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AG29">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="AH29">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AI29">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AJ29" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AK29" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AL29">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AM29">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AN29">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AO29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AP29">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AQ29">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AR29">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AS29">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="AT29">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AU29">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="AV29">
-        <v>2.19</v>
+        <v>0</v>
       </c>
       <c r="AW29">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AX29">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AY29">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AZ29">
         <v>0</v>
@@ -5712,13 +5868,13 @@
         <v>0</v>
       </c>
       <c r="BB29">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="BC29">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="BD29" s="3">
-        <v>45785.89583333334</v>
+        <v>45785.83333333334</v>
       </c>
     </row>
     <row r="30" spans="1:56">
@@ -5729,166 +5885,166 @@
         <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F30" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K30" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L30">
-        <v>1.5</v>
+        <v>3.59</v>
       </c>
       <c r="M30">
-        <v>3.7</v>
+        <v>3.18</v>
       </c>
       <c r="N30">
-        <v>5.75</v>
+        <v>1.9</v>
       </c>
       <c r="O30">
-        <v>1.36</v>
+        <v>2.75</v>
       </c>
       <c r="P30">
         <v>7.75</v>
       </c>
       <c r="Q30">
-        <v>4</v>
+        <v>1.62</v>
       </c>
       <c r="R30">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="S30">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="T30">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="U30">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V30">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="W30">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="X30">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Y30">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z30">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AA30">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="AB30">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AC30">
+        <v>1.61</v>
+      </c>
+      <c r="AD30">
+        <v>4.2</v>
+      </c>
+      <c r="AE30">
+        <v>1.22</v>
+      </c>
+      <c r="AF30">
+        <v>1.95</v>
+      </c>
+      <c r="AG30">
+        <v>1.8</v>
+      </c>
+      <c r="AH30">
+        <v>8</v>
+      </c>
+      <c r="AI30">
+        <v>1.07</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL30">
+        <v>1.8</v>
+      </c>
+      <c r="AM30">
+        <v>1.31</v>
+      </c>
+      <c r="AN30">
+        <v>1.25</v>
+      </c>
+      <c r="AO30">
+        <v>7</v>
+      </c>
+      <c r="AP30">
+        <v>1.36</v>
+      </c>
+      <c r="AQ30">
+        <v>1.7</v>
+      </c>
+      <c r="AR30">
+        <v>2.14</v>
+      </c>
+      <c r="AS30">
+        <v>2.83</v>
+      </c>
+      <c r="AT30">
+        <v>3.4</v>
+      </c>
+      <c r="AU30">
+        <v>2.78</v>
+      </c>
+      <c r="AV30">
+        <v>2.05</v>
+      </c>
+      <c r="AW30">
+        <v>1.6</v>
+      </c>
+      <c r="AX30">
+        <v>1.33</v>
+      </c>
+      <c r="AY30">
+        <v>1.26</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <v>2.75</v>
+      </c>
+      <c r="BC30">
         <v>1.62</v>
       </c>
-      <c r="AD30">
-        <v>4.4</v>
-      </c>
-      <c r="AE30">
-        <v>1.2</v>
-      </c>
-      <c r="AF30">
-        <v>2.2</v>
-      </c>
-      <c r="AG30">
-        <v>1.55</v>
-      </c>
-      <c r="AH30">
-        <v>9</v>
-      </c>
-      <c r="AI30">
-        <v>1.06</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL30">
-        <v>1.25</v>
-      </c>
-      <c r="AM30">
-        <v>1.24</v>
-      </c>
-      <c r="AN30">
-        <v>2.4</v>
-      </c>
-      <c r="AO30">
-        <v>-1</v>
-      </c>
-      <c r="AP30">
-        <v>1.24</v>
-      </c>
-      <c r="AQ30">
-        <v>1.41</v>
-      </c>
-      <c r="AR30">
-        <v>1.8</v>
-      </c>
-      <c r="AS30">
-        <v>2.02</v>
-      </c>
-      <c r="AT30">
-        <v>2.55</v>
-      </c>
-      <c r="AU30">
-        <v>3.55</v>
-      </c>
-      <c r="AV30">
-        <v>2.65</v>
-      </c>
-      <c r="AW30">
-        <v>2.05</v>
-      </c>
-      <c r="AX30">
-        <v>1.68</v>
-      </c>
-      <c r="AY30">
-        <v>1.45</v>
-      </c>
-      <c r="AZ30">
-        <v>0</v>
-      </c>
-      <c r="BA30">
-        <v>0</v>
-      </c>
-      <c r="BB30">
-        <v>1.36</v>
-      </c>
-      <c r="BC30">
-        <v>4</v>
-      </c>
       <c r="BD30" s="3">
-        <v>45785.89930555555</v>
+        <v>45785.89583333334</v>
       </c>
     </row>
     <row r="31" spans="1:56">
@@ -5896,168 +6052,508 @@
         <v>45785</v>
       </c>
       <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>141</v>
+      </c>
+      <c r="L31">
+        <v>2.2</v>
+      </c>
+      <c r="M31">
+        <v>3.16</v>
+      </c>
+      <c r="N31">
+        <v>2.86</v>
+      </c>
+      <c r="O31">
+        <v>1.8</v>
+      </c>
+      <c r="P31">
+        <v>7.5</v>
+      </c>
+      <c r="Q31">
+        <v>2.3</v>
+      </c>
+      <c r="R31">
+        <v>1.44</v>
+      </c>
+      <c r="S31">
+        <v>2.63</v>
+      </c>
+      <c r="T31">
+        <v>3.25</v>
+      </c>
+      <c r="U31">
+        <v>1.33</v>
+      </c>
+      <c r="V31">
+        <v>9</v>
+      </c>
+      <c r="W31">
+        <v>1.07</v>
+      </c>
+      <c r="X31">
+        <v>1.07</v>
+      </c>
+      <c r="Y31">
+        <v>8</v>
+      </c>
+      <c r="Z31">
+        <v>1.4</v>
+      </c>
+      <c r="AA31">
+        <v>2.9</v>
+      </c>
+      <c r="AB31">
+        <v>2.05</v>
+      </c>
+      <c r="AC31">
+        <v>1.61</v>
+      </c>
+      <c r="AD31">
+        <v>4.2</v>
+      </c>
+      <c r="AE31">
+        <v>1.22</v>
+      </c>
+      <c r="AF31">
+        <v>1.91</v>
+      </c>
+      <c r="AG31">
+        <v>1.91</v>
+      </c>
+      <c r="AH31">
+        <v>8</v>
+      </c>
+      <c r="AI31">
+        <v>1.07</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL31">
+        <v>1.38</v>
+      </c>
+      <c r="AM31">
+        <v>1.33</v>
+      </c>
+      <c r="AN31">
+        <v>1.55</v>
+      </c>
+      <c r="AO31">
+        <v>10</v>
+      </c>
+      <c r="AP31">
+        <v>1.29</v>
+      </c>
+      <c r="AQ31">
+        <v>1.57</v>
+      </c>
+      <c r="AR31">
+        <v>2.05</v>
+      </c>
+      <c r="AS31">
+        <v>2.6</v>
+      </c>
+      <c r="AT31">
+        <v>3.5</v>
+      </c>
+      <c r="AU31">
+        <v>3.04</v>
+      </c>
+      <c r="AV31">
+        <v>2.19</v>
+      </c>
+      <c r="AW31">
+        <v>1.7</v>
+      </c>
+      <c r="AX31">
+        <v>1.41</v>
+      </c>
+      <c r="AY31">
+        <v>1.22</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>1.8</v>
+      </c>
+      <c r="BC31">
+        <v>2.3</v>
+      </c>
+      <c r="BD31" s="3">
+        <v>45785.89583333334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:56">
+      <c r="A32" s="2">
+        <v>45785</v>
+      </c>
+      <c r="B32" t="s">
         <v>64</v>
       </c>
-      <c r="C31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>141</v>
+      </c>
+      <c r="L32">
+        <v>1.53</v>
+      </c>
+      <c r="M32">
+        <v>3.5</v>
+      </c>
+      <c r="N32">
+        <v>6.25</v>
+      </c>
+      <c r="O32">
+        <v>1.36</v>
+      </c>
+      <c r="P32">
+        <v>7.75</v>
+      </c>
+      <c r="Q32">
+        <v>4</v>
+      </c>
+      <c r="R32">
+        <v>1.46</v>
+      </c>
+      <c r="S32">
+        <v>2.53</v>
+      </c>
+      <c r="T32">
+        <v>3.36</v>
+      </c>
+      <c r="U32">
+        <v>1.31</v>
+      </c>
+      <c r="V32">
+        <v>7.9</v>
+      </c>
+      <c r="W32">
+        <v>1.02</v>
+      </c>
+      <c r="X32">
+        <v>1.07</v>
+      </c>
+      <c r="Y32">
+        <v>8</v>
+      </c>
+      <c r="Z32">
+        <v>1.42</v>
+      </c>
+      <c r="AA32">
+        <v>2.63</v>
+      </c>
+      <c r="AB32">
+        <v>2.3</v>
+      </c>
+      <c r="AC32">
+        <v>1.57</v>
+      </c>
+      <c r="AD32">
+        <v>4.45</v>
+      </c>
+      <c r="AE32">
+        <v>1.16</v>
+      </c>
+      <c r="AF32">
+        <v>2.3</v>
+      </c>
+      <c r="AG32">
+        <v>1.53</v>
+      </c>
+      <c r="AH32">
+        <v>9</v>
+      </c>
+      <c r="AI32">
+        <v>1.05</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL32">
+        <v>1.26</v>
+      </c>
+      <c r="AM32">
+        <v>1.24</v>
+      </c>
+      <c r="AN32">
+        <v>2.33</v>
+      </c>
+      <c r="AO32">
+        <v>10</v>
+      </c>
+      <c r="AP32">
+        <v>1.24</v>
+      </c>
+      <c r="AQ32">
+        <v>1.4</v>
+      </c>
+      <c r="AR32">
+        <v>1.66</v>
+      </c>
+      <c r="AS32">
+        <v>2.03</v>
+      </c>
+      <c r="AT32">
+        <v>2.65</v>
+      </c>
+      <c r="AU32">
+        <v>3.8</v>
+      </c>
+      <c r="AV32">
+        <v>2.73</v>
+      </c>
+      <c r="AW32">
+        <v>2.13</v>
+      </c>
+      <c r="AX32">
+        <v>1.73</v>
+      </c>
+      <c r="AY32">
+        <v>1.48</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>1.36</v>
+      </c>
+      <c r="BC32">
+        <v>4</v>
+      </c>
+      <c r="BD32" s="3">
+        <v>45785.89930555555</v>
+      </c>
+    </row>
+    <row r="33" spans="1:56">
+      <c r="A33" s="2">
+        <v>45785</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
         <v>72</v>
       </c>
-      <c r="E31" t="s">
-        <v>103</v>
-      </c>
-      <c r="F31" t="s">
-        <v>133</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31" t="s">
-        <v>134</v>
-      </c>
-      <c r="L31">
+      <c r="D33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>141</v>
+      </c>
+      <c r="L33">
         <v>2.12</v>
       </c>
-      <c r="M31">
+      <c r="M33">
         <v>2.89</v>
       </c>
-      <c r="N31">
+      <c r="N33">
         <v>3.3</v>
       </c>
-      <c r="O31">
+      <c r="O33">
         <v>1.73</v>
       </c>
-      <c r="P31">
+      <c r="P33">
         <v>6</v>
       </c>
-      <c r="Q31">
+      <c r="Q33">
         <v>2.6</v>
       </c>
-      <c r="R31">
+      <c r="R33">
         <v>1.53</v>
       </c>
-      <c r="S31">
+      <c r="S33">
         <v>2.38</v>
       </c>
-      <c r="T31">
+      <c r="T33">
         <v>3.75</v>
       </c>
-      <c r="U31">
+      <c r="U33">
         <v>1.25</v>
       </c>
-      <c r="V31">
+      <c r="V33">
         <v>11</v>
       </c>
-      <c r="W31">
+      <c r="W33">
         <v>1.05</v>
       </c>
-      <c r="X31">
+      <c r="X33">
         <v>1.1</v>
       </c>
-      <c r="Y31">
+      <c r="Y33">
         <v>6.5</v>
       </c>
-      <c r="Z31">
+      <c r="Z33">
         <v>1.48</v>
       </c>
-      <c r="AA31">
+      <c r="AA33">
         <v>2.37</v>
       </c>
-      <c r="AB31">
+      <c r="AB33">
         <v>2.31</v>
       </c>
-      <c r="AC31">
+      <c r="AC33">
         <v>1.62</v>
       </c>
-      <c r="AD31">
+      <c r="AD33">
         <v>5</v>
       </c>
-      <c r="AE31">
+      <c r="AE33">
         <v>1.17</v>
       </c>
-      <c r="AF31">
+      <c r="AF33">
         <v>2.1</v>
       </c>
-      <c r="AG31">
+      <c r="AG33">
         <v>1.67</v>
       </c>
-      <c r="AH31">
+      <c r="AH33">
         <v>9.5</v>
       </c>
-      <c r="AI31">
+      <c r="AI33">
         <v>1.05</v>
       </c>
-      <c r="AJ31" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL31">
+      <c r="AJ33" t="s">
+        <v>170</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL33">
         <v>1.28</v>
       </c>
-      <c r="AM31">
+      <c r="AM33">
         <v>1.36</v>
       </c>
-      <c r="AN31">
+      <c r="AN33">
         <v>1.63</v>
       </c>
-      <c r="AO31">
+      <c r="AO33">
         <v>-1</v>
       </c>
-      <c r="AP31">
+      <c r="AP33">
         <v>1.43</v>
       </c>
-      <c r="AQ31">
+      <c r="AQ33">
         <v>1.8</v>
       </c>
-      <c r="AR31">
+      <c r="AR33">
         <v>2.32</v>
       </c>
-      <c r="AS31">
+      <c r="AS33">
         <v>3.14</v>
       </c>
-      <c r="AT31">
+      <c r="AT33">
         <v>3.65</v>
       </c>
-      <c r="AU31">
+      <c r="AU33">
         <v>2.54</v>
       </c>
-      <c r="AV31">
+      <c r="AV33">
         <v>1.91</v>
       </c>
-      <c r="AW31">
+      <c r="AW33">
         <v>1.51</v>
       </c>
-      <c r="AX31">
+      <c r="AX33">
         <v>1.27</v>
       </c>
-      <c r="AY31">
+      <c r="AY33">
         <v>1.23</v>
       </c>
-      <c r="AZ31">
-        <v>0</v>
-      </c>
-      <c r="BA31">
-        <v>0</v>
-      </c>
-      <c r="BB31">
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
         <v>1.73</v>
       </c>
-      <c r="BC31">
+      <c r="BC33">
         <v>2.6</v>
       </c>
-      <c r="BD31" s="3">
+      <c r="BD33" s="3">
         <v>45785.95833333334</v>
       </c>
     </row>
